--- a/public/template_research.xlsx
+++ b/public/template_research.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\humic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE4946-0492-4658-9E43-3D6CAE6825AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4EA8D-04EF-454C-8ACC-EFCDDB11FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75AB7613-7B6E-485D-B7DB-EC2C7B8DFBB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75AB7613-7B6E-485D-B7DB-EC2C7B8DFBB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>asd1</t>
   </si>
@@ -48,69 +48,6 @@
     <t>asd22</t>
   </si>
   <si>
-    <t>faculty</t>
-  </si>
-  <si>
-    <t>study_program</t>
-  </si>
-  <si>
-    <t>research_title</t>
-  </si>
-  <si>
-    <t>skill_group</t>
-  </si>
-  <si>
-    <t>head_name</t>
-  </si>
-  <si>
-    <t>head_partner_name</t>
-  </si>
-  <si>
-    <t>fund_external</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>member_partner</t>
-  </si>
-  <si>
-    <t>fund_total</t>
-  </si>
-  <si>
-    <t>research_type</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>fund_type</t>
-  </si>
-  <si>
-    <t>group_society</t>
-  </si>
-  <si>
-    <t>fund_group_society</t>
-  </si>
-  <si>
-    <t>brim</t>
-  </si>
-  <si>
-    <t>fund_brim</t>
-  </si>
-  <si>
-    <t>date_start</t>
-  </si>
-  <si>
-    <t>date_end</t>
-  </si>
-  <si>
-    <t>contract_number</t>
-  </si>
-  <si>
     <t>asd4</t>
   </si>
   <si>
@@ -141,13 +78,79 @@
     <t>asd21</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>11/12/2023</t>
   </si>
   <si>
     <t>asd9|asdasd|asdasdaa</t>
+  </si>
+  <si>
+    <t>fakultas</t>
+  </si>
+  <si>
+    <t>prodi</t>
+  </si>
+  <si>
+    <t>judul_penelitian</t>
+  </si>
+  <si>
+    <t>kelompok_keahlian</t>
+  </si>
+  <si>
+    <t>nama_ketua</t>
+  </si>
+  <si>
+    <t>anggota</t>
+  </si>
+  <si>
+    <t>nama_ketua_mitra</t>
+  </si>
+  <si>
+    <t>mahasiswa</t>
+  </si>
+  <si>
+    <t>anggota_mitra</t>
+  </si>
+  <si>
+    <t>dana_external</t>
+  </si>
+  <si>
+    <t>total_dana</t>
+  </si>
+  <si>
+    <t>jenis_penelitian</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>jenis_pendanaan</t>
+  </si>
+  <si>
+    <t>kelompok_masyarakat</t>
+  </si>
+  <si>
+    <t>dana_kelompok_masyarakat</t>
+  </si>
+  <si>
+    <t>dana_brin</t>
+  </si>
+  <si>
+    <t>tanggal_mulai_kontrak</t>
+  </si>
+  <si>
+    <t>tanggal_selesai_kontrak</t>
+  </si>
+  <si>
+    <t>pemberi_dana</t>
+  </si>
+  <si>
+    <t>telkom</t>
+  </si>
+  <si>
+    <t>nomor_kontrak</t>
+  </si>
+  <si>
+    <t>keterangan</t>
   </si>
 </sst>
 </file>
@@ -506,108 +509,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2ED8F-87CE-49FC-B877-E98148EC8D34}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="T1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -618,60 +624,63 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>100000</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>100000</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>100000</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2">
-        <v>100000</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
         <v>10000</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="V2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/template_research.xlsx
+++ b/public/template_research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\humic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4EA8D-04EF-454C-8ACC-EFCDDB11FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20758EC8-70CB-437F-8CED-1079C396612B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75AB7613-7B6E-485D-B7DB-EC2C7B8DFBB5}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75AB7613-7B6E-485D-B7DB-EC2C7B8DFBB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>asd1</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>keterangan</t>
+  </si>
+  <si>
+    <t>tkt</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2ED8F-87CE-49FC-B877-E98148EC8D34}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
     <col min="23" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -553,67 +556,70 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
       </c>
       <c r="P1" t="s">
         <v>30</v>
       </c>
       <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -623,64 +629,67 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>100000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>100000</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>100000</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>10000</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>3</v>
       </c>
     </row>
